--- a/simulacion_NVDA.xlsx
+++ b/simulacion_NVDA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>163.3500061035156</v>
+      </c>
+      <c r="C2" t="n">
         <v>163.0686950683594</v>
       </c>
-      <c r="C2" t="n">
-        <v>221.5610520979001</v>
-      </c>
       <c r="D2" t="n">
-        <v>227.9115442960986</v>
+        <v>155.3970684269742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>163.2700042724609</v>
+      </c>
+      <c r="C3" t="n">
         <v>163.3500061035156</v>
       </c>
-      <c r="C3" t="n">
-        <v>163.6926788171955</v>
-      </c>
       <c r="D3" t="n">
-        <v>167.6082885845698</v>
+        <v>165.3898519224469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>162.5650024414062</v>
+      </c>
+      <c r="C4" t="n">
         <v>163.2700042724609</v>
       </c>
-      <c r="C4" t="n">
-        <v>164.4144461784434</v>
-      </c>
       <c r="D4" t="n">
-        <v>168.2333813043334</v>
+        <v>160.7850187702587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>162.8150024414062</v>
+      </c>
+      <c r="C5" t="n">
         <v>162.5650024414062</v>
       </c>
-      <c r="C5" t="n">
-        <v>161.2643857513273</v>
-      </c>
       <c r="D5" t="n">
-        <v>167.2694349988763</v>
+        <v>167.8253973935246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="C6" t="n">
         <v>162.8150024414062</v>
       </c>
-      <c r="C6" t="n">
-        <v>163.8462610096462</v>
-      </c>
       <c r="D6" t="n">
-        <v>166.0474201729225</v>
+        <v>164.7868737954554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>162.8300018310547</v>
+      </c>
+      <c r="C7" t="n">
         <v>162.8500061035156</v>
       </c>
-      <c r="C7" t="n">
-        <v>163.3845548449962</v>
-      </c>
       <c r="D7" t="n">
-        <v>163.6895656206027</v>
+        <v>162.6922219202335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>162.4100036621094</v>
+      </c>
+      <c r="C8" t="n">
         <v>162.8300018310547</v>
       </c>
-      <c r="C8" t="n">
-        <v>162.8579247696564</v>
-      </c>
       <c r="D8" t="n">
-        <v>164.3493871817194</v>
+        <v>162.5305082707869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>162.5966949462891</v>
+      </c>
+      <c r="C9" t="n">
         <v>162.4100036621094</v>
       </c>
-      <c r="C9" t="n">
-        <v>164.4283096090612</v>
-      </c>
       <c r="D9" t="n">
-        <v>164.9323216397433</v>
+        <v>163.1237049094994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>163.2747039794922</v>
+      </c>
+      <c r="C10" t="n">
         <v>162.5966949462891</v>
       </c>
-      <c r="C10" t="n">
-        <v>166.1072866087381</v>
-      </c>
       <c r="D10" t="n">
-        <v>160.5961644631517</v>
+        <v>156.0867288086234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>163.4476928710938</v>
+      </c>
+      <c r="C11" t="n">
         <v>163.2747039794922</v>
       </c>
-      <c r="C11" t="n">
-        <v>163.7359617529105</v>
-      </c>
       <c r="D11" t="n">
-        <v>162.6836004283072</v>
+        <v>156.8594619335315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>163.7299957275391</v>
+      </c>
+      <c r="C12" t="n">
         <v>163.4476928710938</v>
       </c>
-      <c r="C12" t="n">
-        <v>164.7940263053496</v>
-      </c>
       <c r="D12" t="n">
-        <v>160.8634773258081</v>
+        <v>162.8814893027454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>164.0599975585938</v>
+      </c>
+      <c r="C13" t="n">
         <v>163.7299957275391</v>
       </c>
-      <c r="C13" t="n">
-        <v>162.9090622811734</v>
-      </c>
       <c r="D13" t="n">
-        <v>166.0605308927894</v>
+        <v>167.8254144098223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>164.1049957275391</v>
+      </c>
+      <c r="C14" t="n">
         <v>164.0599975585938</v>
       </c>
-      <c r="C14" t="n">
-        <v>165.1146796480218</v>
-      </c>
       <c r="D14" t="n">
-        <v>161.9722923786634</v>
+        <v>158.9572847164069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>167.3598937988281</v>
+      </c>
+      <c r="C15" t="n">
         <v>164.1049957275391</v>
       </c>
-      <c r="C15" t="n">
-        <v>162.4470645575268</v>
-      </c>
       <c r="D15" t="n">
-        <v>164.8964354889675</v>
+        <v>161.2805195773754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>166.4949951171875</v>
+      </c>
+      <c r="C16" t="n">
         <v>167.3598937988281</v>
       </c>
-      <c r="C16" t="n">
-        <v>162.1507340681704</v>
-      </c>
       <c r="D16" t="n">
-        <v>164.6107547831477</v>
+        <v>161.4305983826725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>166.4786987304688</v>
+      </c>
+      <c r="C17" t="n">
         <v>166.4949951171875</v>
       </c>
-      <c r="C17" t="n">
-        <v>169.93478303505</v>
-      </c>
       <c r="D17" t="n">
-        <v>165.8539511232554</v>
+        <v>168.0552166658724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>166.1822967529297</v>
+      </c>
+      <c r="C18" t="n">
         <v>166.4786987304688</v>
       </c>
-      <c r="C18" t="n">
-        <v>167.6476604373812</v>
-      </c>
       <c r="D18" t="n">
-        <v>160.4159456782511</v>
+        <v>170.2978857305087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>165.6815032958984</v>
+      </c>
+      <c r="C19" t="n">
         <v>166.1822967529297</v>
       </c>
-      <c r="C19" t="n">
-        <v>166.565330341393</v>
-      </c>
       <c r="D19" t="n">
-        <v>166.398227832539</v>
+        <v>161.0109778602229</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>165.0950012207031</v>
+      </c>
+      <c r="C20" t="n">
         <v>165.6815032958984</v>
       </c>
-      <c r="C20" t="n">
-        <v>167.3114726648356</v>
-      </c>
       <c r="D20" t="n">
-        <v>168.3714871963199</v>
+        <v>171.4147473769869</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>164.8800048828125</v>
+      </c>
+      <c r="C21" t="n">
         <v>165.0950012207031</v>
       </c>
-      <c r="C21" t="n">
-        <v>164.6333545436276</v>
-      </c>
       <c r="D21" t="n">
-        <v>167.4010278866694</v>
+        <v>164.5697456719568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>163.7200012207031</v>
+      </c>
+      <c r="C22" t="n">
         <v>164.8800048828125</v>
       </c>
-      <c r="C22" t="n">
-        <v>164.590604021146</v>
-      </c>
       <c r="D22" t="n">
-        <v>168.3704337278053</v>
+        <v>164.2441569051837</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>164.7546997070312</v>
+      </c>
+      <c r="C23" t="n">
         <v>163.7200012207031</v>
       </c>
-      <c r="C23" t="n">
-        <v>164.6214589132125</v>
-      </c>
       <c r="D23" t="n">
-        <v>168.1937376336509</v>
+        <v>158.9066503716691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>164.9700012207031</v>
+      </c>
+      <c r="C24" t="n">
         <v>164.7546997070312</v>
       </c>
-      <c r="C24" t="n">
-        <v>164.0962309810782</v>
-      </c>
       <c r="D24" t="n">
-        <v>158.1189034771332</v>
+        <v>167.0863752835365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>165.0800933837891</v>
+      </c>
+      <c r="C25" t="n">
         <v>164.9700012207031</v>
       </c>
-      <c r="C25" t="n">
-        <v>164.465610236387</v>
-      </c>
       <c r="D25" t="n">
-        <v>165.4915085541351</v>
+        <v>168.5064716028009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>164.8200073242188</v>
+      </c>
+      <c r="C26" t="n">
         <v>165.0800933837891</v>
       </c>
-      <c r="C26" t="n">
-        <v>162.2056886235561</v>
-      </c>
       <c r="D26" t="n">
-        <v>161.0224082100382</v>
+        <v>169.8187740713424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>164.4033050537109</v>
+      </c>
+      <c r="C27" t="n">
         <v>164.8200073242188</v>
       </c>
-      <c r="C27" t="n">
-        <v>163.5861621264255</v>
-      </c>
       <c r="D27" t="n">
-        <v>165.353457265286</v>
+        <v>161.6771507449955</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>164.0700073242188</v>
+      </c>
+      <c r="C28" t="n">
         <v>164.4033050537109</v>
       </c>
-      <c r="C28" t="n">
-        <v>160.5957568397359</v>
-      </c>
       <c r="D28" t="n">
-        <v>165.6877744599058</v>
+        <v>164.5195951904789</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>171.5783996582031</v>
+      </c>
+      <c r="C29" t="n">
         <v>164.0700073242188</v>
       </c>
-      <c r="C29" t="n">
-        <v>166.8013836785686</v>
-      </c>
       <c r="D29" t="n">
-        <v>166.1548181746749</v>
+        <v>163.1512261523607</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>171.3849945068359</v>
+      </c>
+      <c r="C30" t="n">
         <v>171.5783996582031</v>
       </c>
-      <c r="C30" t="n">
-        <v>164.9447671131551</v>
-      </c>
       <c r="D30" t="n">
-        <v>168.3850612046083</v>
+        <v>175.41558571811</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
         <v>171.3849945068359</v>
       </c>
       <c r="C31" t="n">
-        <v>174.3416438837228</v>
+        <v>171.3849945068359</v>
       </c>
       <c r="D31" t="n">
-        <v>171.1069438076048</v>
+        <v>173.2348727227712</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>170.5249938964844</v>
+      </c>
+      <c r="C32" t="n">
         <v>171.3849945068359</v>
       </c>
-      <c r="C32" t="n">
-        <v>174.0601054871481</v>
-      </c>
       <c r="D32" t="n">
-        <v>173.5773755679703</v>
+        <v>173.5243658436468</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>170.9118041992188</v>
+      </c>
+      <c r="C33" t="n">
         <v>170.5249938964844</v>
       </c>
-      <c r="C33" t="n">
-        <v>171.1670178634914</v>
-      </c>
       <c r="D33" t="n">
-        <v>169.3865971076535</v>
+        <v>170.356498387303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>170.1999053955078</v>
+      </c>
+      <c r="C34" t="n">
         <v>170.9118041992188</v>
       </c>
-      <c r="C34" t="n">
-        <v>167.0677339406198</v>
-      </c>
       <c r="D34" t="n">
-        <v>165.713859469712</v>
+        <v>178.2545713311746</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="C35" t="n">
         <v>170.1999053955078</v>
       </c>
-      <c r="C35" t="n">
-        <v>173.2504301498291</v>
-      </c>
       <c r="D35" t="n">
-        <v>173.4856826802591</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>170.5500030517578</v>
-      </c>
-      <c r="C36" t="n">
-        <v>169.9868126855901</v>
-      </c>
-      <c r="D36" t="n">
-        <v>169.8079658391793</v>
+        <v>164.3797181212215</v>
       </c>
     </row>
   </sheetData>
